--- a/output/BTG_23657960000124.xlsx
+++ b/output/BTG_23657960000124.xlsx
@@ -966,10 +966,10 @@
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.4985250999999999</v>
+        <v>0.4877587999999999</v>
       </c>
       <c r="C53">
-        <v>0.03817999737428335</v>
+        <v>0.0307210917438534</v>
       </c>
     </row>
   </sheetData>

--- a/output/BTG_23657960000124.xlsx
+++ b/output/BTG_23657960000124.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BTG PACTUAL TOF FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,590 +383,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42613</v>
       </c>
       <c r="B2">
-        <v>0.00658369999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42643</v>
       </c>
       <c r="B3">
-        <v>0.02840250000000011</v>
-      </c>
-      <c r="C3">
         <v>0.02167609111890068</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42674</v>
       </c>
       <c r="B4">
-        <v>0.03315850000000009</v>
-      </c>
-      <c r="C4">
         <v>0.004624648423161126</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42704</v>
       </c>
       <c r="B5">
-        <v>0.04574410000000007</v>
-      </c>
-      <c r="C5">
         <v>0.01218167396386893</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42735</v>
       </c>
       <c r="B6">
-        <v>0.07350119999999993</v>
-      </c>
-      <c r="C6">
         <v>0.02654291810013554</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42766</v>
       </c>
       <c r="B7">
-        <v>0.09661190000000008</v>
-      </c>
-      <c r="C7">
         <v>0.02152834109547364</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42794</v>
       </c>
       <c r="B8">
-        <v>0.1193998999999999</v>
-      </c>
-      <c r="C8">
         <v>0.02078036906219949</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42825</v>
       </c>
       <c r="B9">
-        <v>0.1382589000000001</v>
-      </c>
-      <c r="C9">
         <v>0.01684741976482229</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42855</v>
       </c>
       <c r="B10">
-        <v>0.1480147999999999</v>
-      </c>
-      <c r="C10">
         <v>0.008570897183408643</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42886</v>
       </c>
       <c r="B11">
-        <v>0.1497976999999999</v>
-      </c>
-      <c r="C11">
         <v>0.001553028758862762</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42916</v>
       </c>
       <c r="B12">
-        <v>0.1624312999999999</v>
-      </c>
-      <c r="C12">
         <v>0.01098767200525796</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42947</v>
       </c>
       <c r="B13">
-        <v>0.1875781999999999</v>
-      </c>
-      <c r="C13">
         <v>0.02163302037720416</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42978</v>
       </c>
       <c r="B14">
-        <v>0.2019082999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01206665801039453</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43008</v>
       </c>
       <c r="B15">
-        <v>0.2181409999999999</v>
-      </c>
-      <c r="C15">
         <v>0.01350577244536866</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43039</v>
       </c>
       <c r="B16">
-        <v>0.2167007000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.001182375439296335</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43069</v>
       </c>
       <c r="B17">
-        <v>0.2191063</v>
-      </c>
-      <c r="C17">
         <v>0.001977150173415598</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43100</v>
       </c>
       <c r="B18">
-        <v>0.2303778999999999</v>
-      </c>
-      <c r="C18">
         <v>0.009245789313040209</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43131</v>
       </c>
       <c r="B19">
-        <v>0.2581072</v>
-      </c>
-      <c r="C19">
         <v>0.02253722210062459</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43159</v>
       </c>
       <c r="B20">
-        <v>0.2684435000000001</v>
-      </c>
-      <c r="C20">
         <v>0.008215754587526547</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43190</v>
       </c>
       <c r="B21">
-        <v>0.2830029999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01147824085187854</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43220</v>
       </c>
       <c r="B22">
-        <v>0.2798044</v>
-      </c>
-      <c r="C22">
         <v>-0.002493057303840973</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43251</v>
       </c>
       <c r="B23">
-        <v>0.2485633</v>
-      </c>
-      <c r="C23">
         <v>-0.02441083965643498</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43281</v>
       </c>
       <c r="B24">
-        <v>0.2439787</v>
-      </c>
-      <c r="C24">
         <v>-0.00367190033536946</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43312</v>
       </c>
       <c r="B25">
-        <v>0.2525132999999999</v>
-      </c>
-      <c r="C25">
         <v>0.006860728403146998</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43343</v>
       </c>
       <c r="B26">
-        <v>0.2584582</v>
-      </c>
-      <c r="C26">
         <v>0.004746376745061287</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43373</v>
       </c>
       <c r="B27">
-        <v>0.2681031</v>
-      </c>
-      <c r="C27">
         <v>0.007664060673608475</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43404</v>
       </c>
       <c r="B28">
-        <v>0.2848253000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01318678268352147</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43434</v>
       </c>
       <c r="B29">
-        <v>0.2986834</v>
-      </c>
-      <c r="C29">
         <v>0.01078598000833253</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43465</v>
       </c>
       <c r="B30">
-        <v>0.3172835000000001</v>
-      </c>
-      <c r="C30">
         <v>0.01432227438958567</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43496</v>
       </c>
       <c r="B31">
-        <v>0.3429696</v>
-      </c>
-      <c r="C31">
         <v>0.01949929533012451</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43524</v>
       </c>
       <c r="B32">
-        <v>0.349772</v>
-      </c>
-      <c r="C32">
         <v>0.005065192838318966</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43555</v>
       </c>
       <c r="B33">
-        <v>0.3507663999999999</v>
-      </c>
-      <c r="C33">
         <v>0.000736717015910715</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43585</v>
       </c>
       <c r="B34">
-        <v>0.3600781</v>
-      </c>
-      <c r="C34">
         <v>0.006893642009454748</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43616</v>
       </c>
       <c r="B35">
-        <v>0.3796006000000001</v>
-      </c>
-      <c r="C35">
         <v>0.01435395511478355</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43646</v>
       </c>
       <c r="B36">
-        <v>0.4208883000000001</v>
-      </c>
-      <c r="C36">
         <v>0.02992728475183326</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43677</v>
       </c>
       <c r="B37">
-        <v>0.4465332</v>
-      </c>
-      <c r="C37">
         <v>0.01804849825281818</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43708</v>
       </c>
       <c r="B38">
-        <v>0.4488095000000001</v>
-      </c>
-      <c r="C38">
         <v>0.001573624442218202</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>0.4849969999999999</v>
-      </c>
-      <c r="C39">
         <v>0.0249774038615842</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43769</v>
       </c>
       <c r="B40">
-        <v>0.5188364000000001</v>
-      </c>
-      <c r="C40">
         <v>0.0227875207828705</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43799</v>
       </c>
       <c r="B41">
-        <v>0.500337</v>
-      </c>
-      <c r="C41">
         <v>-0.01217998199147718</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43830</v>
       </c>
       <c r="B42">
-        <v>0.5279986999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01843699115598696</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43861</v>
       </c>
       <c r="B43">
-        <v>0.5236821</v>
-      </c>
-      <c r="C43">
         <v>-0.002825002403470611</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43890</v>
       </c>
       <c r="B44">
-        <v>0.5110743</v>
-      </c>
-      <c r="C44">
         <v>-0.008274560684279231</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>0.4508426999999999</v>
-      </c>
-      <c r="C45">
         <v>-0.03986011806302314</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43951</v>
       </c>
       <c r="B46">
-        <v>0.4661975</v>
-      </c>
-      <c r="C46">
         <v>0.01058336648073577</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43982</v>
       </c>
       <c r="B47">
-        <v>0.4613887999999999</v>
-      </c>
-      <c r="C47">
         <v>-0.003279708224847022</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44012</v>
       </c>
       <c r="B48">
-        <v>0.4622442</v>
-      </c>
-      <c r="C48">
         <v>0.0005853336223735628</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44043</v>
       </c>
       <c r="B49">
-        <v>0.5401578</v>
-      </c>
-      <c r="C49">
         <v>0.05328357602649403</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44074</v>
       </c>
       <c r="B50">
-        <v>0.5043157</v>
-      </c>
-      <c r="C50">
         <v>-0.02327170631476849</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44104</v>
       </c>
       <c r="B51">
-        <v>0.4616157999999999</v>
-      </c>
-      <c r="C51">
         <v>-0.02838493276378096</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44135</v>
       </c>
       <c r="B52">
-        <v>0.4434155</v>
-      </c>
-      <c r="C52">
         <v>-0.01245217792527964</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.4877587999999999</v>
-      </c>
-      <c r="C53">
-        <v>0.0307210917438534</v>
+        <v>0.0257965914873437</v>
       </c>
     </row>
   </sheetData>
